--- a/tut05/output/0501ME03.xlsx
+++ b/tut05/output/0501ME03.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.63265306122449</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>8.409090909090908</v>
+        <v>8.41</v>
       </c>
       <c r="D6" t="n">
-        <v>8.106382978723405</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>8.448979591836734</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>9.086956521739131</v>
+        <v>9.09</v>
       </c>
       <c r="G6" t="n">
-        <v>9.478260869565217</v>
+        <v>9.48</v>
       </c>
       <c r="H6" t="n">
         <v>9.65</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.63265306122449</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>8.526881720430108</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>8.385714285714286</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>8.402116402116402</v>
+        <v>8.4</v>
       </c>
       <c r="F8" t="n">
-        <v>8.536170212765958</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>8.690391459074734</v>
+        <v>8.69</v>
       </c>
       <c r="H8" t="n">
-        <v>8.809968847352025</v>
+        <v>8.81</v>
       </c>
       <c r="I8" t="n">
-        <v>8.875346260387811</v>
+        <v>8.880000000000001</v>
       </c>
     </row>
   </sheetData>
